--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-933957.8137026307</v>
+        <v>-936792.3395745422</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>93.06329979235709</v>
       </c>
       <c r="C2" t="n">
-        <v>187.4851375706482</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>165.2129867717661</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>134.163507430083</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>81.17624990084414</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663198</v>
+        <v>140.2207931214933</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>40.04377454978662</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5255871663198</v>
+        <v>49.53073735516443</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>304.398594432545</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>255.4209015891776</v>
       </c>
       <c r="G5" t="n">
         <v>12.69338038700813</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>211.6733887357558</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1369043375863</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>304.3985944325458</v>
+        <v>304.398594432545</v>
       </c>
       <c r="W5" t="n">
-        <v>90.13315720667036</v>
+        <v>304.398594432545</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>304.3985944325458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.9473880167793</v>
+        <v>51.79360685625816</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>41.32815127472322</v>
+        <v>41.32815127472326</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>145.7506845462213</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>183.3536691601433</v>
+        <v>194.5373484949516</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1.981963669487326</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>47.70466644022319</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>384.4707015432247</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>365.2574639540472</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>151.5497626304648</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>26.30660220273166</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>230.781875874152</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>1.04391179877651</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>225.9908369016792</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>55.30088041042054</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>126.6321535627876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>41.16673120696665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>78.58522891595203</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>99.43007309478926</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
-        <v>95.21019414968927</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261735</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4138,7 +4138,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261735</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545294</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487946</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="C2" t="n">
-        <v>371.303636809756</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="D2" t="n">
-        <v>371.303636809756</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="E2" t="n">
-        <v>371.303636809756</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652792</v>
+        <v>614.5836542914591</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652792</v>
+        <v>614.5836542914591</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652792</v>
+        <v>425.1638692749742</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652792</v>
+        <v>425.1638692749742</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652792</v>
+        <v>235.7440842584892</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652792</v>
+        <v>235.7440842584892</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487946</v>
+        <v>235.7440842584892</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>392.4672266287266</v>
+        <v>440.249846876027</v>
       </c>
       <c r="C3" t="n">
-        <v>392.4672266287266</v>
+        <v>265.7968175949</v>
       </c>
       <c r="D3" t="n">
-        <v>243.5328169674753</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="E3" t="n">
-        <v>243.5328169674753</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="F3" t="n">
-        <v>96.99825899436027</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G3" t="n">
-        <v>96.99825899436027</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Y3" t="n">
-        <v>560.6825636487946</v>
+        <v>608.4651838960951</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.45030409430217</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="C4" t="n">
-        <v>55.45030409430217</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="D4" t="n">
-        <v>55.45030409430217</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="E4" t="n">
-        <v>55.45030409430217</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="F4" t="n">
-        <v>55.45030409430217</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G4" t="n">
-        <v>55.45030409430217</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>55.45030409430217</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>43.17590452428081</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>216.0634826394158</v>
+        <v>118.7527324484196</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340724</v>
+        <v>285.9838492295954</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287291</v>
+        <v>471.6341805242523</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652792</v>
+        <v>634.3723839608025</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652792</v>
+        <v>746.725497984628</v>
       </c>
       <c r="R4" t="n">
-        <v>615.9383389575112</v>
+        <v>612.5614882768599</v>
       </c>
       <c r="S4" t="n">
-        <v>615.9383389575112</v>
+        <v>423.141703260375</v>
       </c>
       <c r="T4" t="n">
-        <v>615.9383389575112</v>
+        <v>423.141703260375</v>
       </c>
       <c r="U4" t="n">
-        <v>615.9383389575112</v>
+        <v>423.141703260375</v>
       </c>
       <c r="V4" t="n">
-        <v>426.5185539410265</v>
+        <v>423.141703260375</v>
       </c>
       <c r="W4" t="n">
-        <v>426.5185539410265</v>
+        <v>423.141703260375</v>
       </c>
       <c r="X4" t="n">
-        <v>237.0987689245419</v>
+        <v>373.1106554268756</v>
       </c>
       <c r="Y4" t="n">
-        <v>237.0987689245419</v>
+        <v>183.6908704103906</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.1189846543204</v>
+        <v>295.1743946012559</v>
       </c>
       <c r="C5" t="n">
-        <v>44.1189846543204</v>
+        <v>295.1743946012559</v>
       </c>
       <c r="D5" t="n">
-        <v>44.1189846543204</v>
+        <v>295.1743946012559</v>
       </c>
       <c r="E5" t="n">
-        <v>44.1189846543204</v>
+        <v>295.1743946012559</v>
       </c>
       <c r="F5" t="n">
-        <v>37.17348390511693</v>
+        <v>37.17348390511687</v>
       </c>
       <c r="G5" t="n">
-        <v>24.35188755460366</v>
+        <v>24.3518875546036</v>
       </c>
       <c r="H5" t="n">
-        <v>24.35188755460366</v>
+        <v>24.3518875546036</v>
       </c>
       <c r="I5" t="n">
-        <v>24.35188755460366</v>
+        <v>24.3518875546036</v>
       </c>
       <c r="J5" t="n">
-        <v>64.36770738101291</v>
+        <v>64.36770738101245</v>
       </c>
       <c r="K5" t="n">
-        <v>175.0795665155872</v>
+        <v>175.0795665155863</v>
       </c>
       <c r="L5" t="n">
-        <v>349.3291794422198</v>
+        <v>349.3291794422187</v>
       </c>
       <c r="M5" t="n">
-        <v>574.8848855731939</v>
+        <v>574.8848855731923</v>
       </c>
       <c r="N5" t="n">
-        <v>808.7041272194306</v>
+        <v>808.7041272194286</v>
       </c>
       <c r="O5" t="n">
-        <v>1016.157745525438</v>
+        <v>1016.157745525436</v>
       </c>
       <c r="P5" t="n">
-        <v>1158.713608281572</v>
+        <v>1158.713608281569</v>
       </c>
       <c r="Q5" t="n">
-        <v>1217.594377730183</v>
+        <v>1217.59437773018</v>
       </c>
       <c r="R5" t="n">
-        <v>1217.594377730183</v>
+        <v>1217.59437773018</v>
       </c>
       <c r="S5" t="n">
-        <v>1217.594377730183</v>
+        <v>1217.59437773018</v>
       </c>
       <c r="T5" t="n">
-        <v>1003.782873956692</v>
+        <v>1217.59437773018</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1092332116557</v>
+        <v>1217.59437773018</v>
       </c>
       <c r="V5" t="n">
-        <v>442.6359055020135</v>
+        <v>910.1210500205386</v>
       </c>
       <c r="W5" t="n">
-        <v>351.5923123639626</v>
+        <v>602.6477223108973</v>
       </c>
       <c r="X5" t="n">
-        <v>351.5923123639626</v>
+        <v>602.6477223108973</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.1189846543204</v>
+        <v>602.6477223108973</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>509.1901018377222</v>
+        <v>598.6393117647874</v>
       </c>
       <c r="C6" t="n">
-        <v>509.1901018377222</v>
+        <v>424.1862824836604</v>
       </c>
       <c r="D6" t="n">
-        <v>509.1901018377222</v>
+        <v>424.1862824836604</v>
       </c>
       <c r="E6" t="n">
-        <v>349.9526468322667</v>
+        <v>264.9488274782049</v>
       </c>
       <c r="F6" t="n">
-        <v>203.4180888591517</v>
+        <v>118.4142695050899</v>
       </c>
       <c r="G6" t="n">
-        <v>66.09749490280893</v>
+        <v>66.09749490280892</v>
       </c>
       <c r="H6" t="n">
-        <v>66.09749490280893</v>
+        <v>66.09749490280892</v>
       </c>
       <c r="I6" t="n">
-        <v>24.35188755460366</v>
+        <v>24.3518875546036</v>
       </c>
       <c r="J6" t="n">
-        <v>29.36718875041055</v>
+        <v>154.1973137374151</v>
       </c>
       <c r="K6" t="n">
-        <v>258.8773968280876</v>
+        <v>258.8773968280861</v>
       </c>
       <c r="L6" t="n">
-        <v>421.8147874255777</v>
+        <v>421.814787425576</v>
       </c>
       <c r="M6" t="n">
-        <v>631.3119051648985</v>
+        <v>631.3119051648964</v>
       </c>
       <c r="N6" t="n">
-        <v>860.762433148397</v>
+        <v>860.7624331483946</v>
       </c>
       <c r="O6" t="n">
-        <v>1048.44504425539</v>
+        <v>1048.445044255387</v>
       </c>
       <c r="P6" t="n">
-        <v>1179.743819816751</v>
+        <v>1179.743819816748</v>
       </c>
       <c r="Q6" t="n">
-        <v>1217.594377730183</v>
+        <v>1217.59437773018</v>
       </c>
       <c r="R6" t="n">
-        <v>1217.594377730183</v>
+        <v>1217.59437773018</v>
       </c>
       <c r="S6" t="n">
-        <v>1070.371464047131</v>
+        <v>1217.59437773018</v>
       </c>
       <c r="T6" t="n">
-        <v>885.1657376227442</v>
+        <v>1021.092005513057</v>
       </c>
       <c r="U6" t="n">
-        <v>885.1657376227442</v>
+        <v>1021.092005513057</v>
       </c>
       <c r="V6" t="n">
-        <v>885.1657376227442</v>
+        <v>1021.092005513057</v>
       </c>
       <c r="W6" t="n">
-        <v>885.1657376227442</v>
+        <v>766.8546487848555</v>
       </c>
       <c r="X6" t="n">
-        <v>885.1657376227442</v>
+        <v>766.8546487848555</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.4054388577903</v>
+        <v>766.8546487848555</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>220.451512894798</v>
+        <v>24.3518875546036</v>
       </c>
       <c r="C7" t="n">
-        <v>220.451512894798</v>
+        <v>24.3518875546036</v>
       </c>
       <c r="D7" t="n">
-        <v>220.451512894798</v>
+        <v>24.3518875546036</v>
       </c>
       <c r="E7" t="n">
-        <v>72.53841931240487</v>
+        <v>24.3518875546036</v>
       </c>
       <c r="F7" t="n">
-        <v>72.53841931240487</v>
+        <v>24.3518875546036</v>
       </c>
       <c r="G7" t="n">
-        <v>72.53841931240487</v>
+        <v>24.3518875546036</v>
       </c>
       <c r="H7" t="n">
-        <v>72.53841931240487</v>
+        <v>24.3518875546036</v>
       </c>
       <c r="I7" t="n">
-        <v>24.35188755460366</v>
+        <v>24.3518875546036</v>
       </c>
       <c r="J7" t="n">
-        <v>24.35188755460366</v>
+        <v>24.3518875546036</v>
       </c>
       <c r="K7" t="n">
-        <v>136.9322943978197</v>
+        <v>136.9322943978195</v>
       </c>
       <c r="L7" t="n">
-        <v>336.522889682625</v>
+        <v>336.5228896826246</v>
       </c>
       <c r="M7" t="n">
-        <v>557.3523108385198</v>
+        <v>557.3523108385192</v>
       </c>
       <c r="N7" t="n">
-        <v>778.3655183592059</v>
+        <v>778.3655183592052</v>
       </c>
       <c r="O7" t="n">
-        <v>966.4906920142979</v>
+        <v>966.4906920142971</v>
       </c>
       <c r="P7" t="n">
-        <v>1103.943595475367</v>
+        <v>1103.943595475366</v>
       </c>
       <c r="Q7" t="n">
-        <v>1115.673780930758</v>
+        <v>1115.673780930757</v>
       </c>
       <c r="R7" t="n">
-        <v>989.749635616583</v>
+        <v>989.7496356165818</v>
       </c>
       <c r="S7" t="n">
-        <v>989.749635616583</v>
+        <v>989.7496356165818</v>
       </c>
       <c r="T7" t="n">
-        <v>764.5531711376454</v>
+        <v>764.5531711376443</v>
       </c>
       <c r="U7" t="n">
-        <v>764.5531711376454</v>
+        <v>764.5531711376443</v>
       </c>
       <c r="V7" t="n">
-        <v>509.8686829317586</v>
+        <v>764.5531711376443</v>
       </c>
       <c r="W7" t="n">
-        <v>220.451512894798</v>
+        <v>475.1360011006837</v>
       </c>
       <c r="X7" t="n">
-        <v>220.451512894798</v>
+        <v>247.1464502026664</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.451512894798</v>
+        <v>26.35387105913625</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.4584982637875</v>
+        <v>1545.153177427444</v>
       </c>
       <c r="C8" t="n">
-        <v>494.4959813233758</v>
+        <v>1545.153177427444</v>
       </c>
       <c r="D8" t="n">
-        <v>136.2302827166252</v>
+        <v>1545.153177427444</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2302827166252</v>
+        <v>1159.364924829199</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4805,10 +4805,10 @@
         <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.31341879663</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W8" t="n">
-        <v>1622.544763526516</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X8" t="n">
-        <v>1253.597830239599</v>
+        <v>1935.292509403255</v>
       </c>
       <c r="Y8" t="n">
-        <v>863.4584982637875</v>
+        <v>1545.153177427444</v>
       </c>
     </row>
     <row r="9">
@@ -4887,22 +4887,22 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100998</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2193.450786296771</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2440.633520129068</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2555.949435236614</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1087.683159487371</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1087.683159487371</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>1087.683159487371</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X10" t="n">
-        <v>1087.683159487371</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="Y10" t="n">
-        <v>1087.683159487371</v>
+        <v>354.4439942939397</v>
       </c>
     </row>
     <row r="11">
@@ -5021,31 +5021,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.07903472198</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7592298206043</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1420.189824692392</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1192.200273794374</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.4076946508441</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,10 +5279,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5358,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2252.221377756499</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>801.691883631198</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>632.7557007032912</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782946</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797733</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1816.233211630147</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V16" t="n">
-        <v>1561.54872342426</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W16" t="n">
-        <v>1272.131553387299</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>983.3403484614378</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5595,25 +5595,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703096</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424027</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>526.5658826424027</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>378.6527890600096</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>231.7628415620992</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>231.7628415620992</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0193492433381</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6078,16 +6078,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6227,10 +6227,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6242,10 +6242,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,22 +6306,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1337.934786622704</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>533.5582272005026</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>383.4415877881669</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1877.026663243044</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.342175037157</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>884.1428749586493</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>962.6357307816187</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>793.6995478537118</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,19 +7117,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7254,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1337.934786622704</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,10 +7327,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7354,16 +7354,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7643,16 +7643,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1522.21291626627</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>42.56275186471059</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>152.8089368603741</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>51.67550811442942</v>
+        <v>51.67550811442956</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>144.2256917007042</v>
+        <v>18.13465636029422</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8535,13 +8535,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N9" t="n">
-        <v>186.5911984019048</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>27.39221874048049</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7877542003594</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>24.61230575997013</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>63.64367339871026</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>161.7153815510929</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897338</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22759,10 +22759,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750819</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>55.74112246243902</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>147.5715612194358</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>60.1936374875649</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>84.99383243580334</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>210.9709121168613</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>139.9994244361428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>186.7544012944549</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
-        <v>53.40527886852308</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26314,7 +26314,7 @@
         <v>189998.5267816802</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.4867126778</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="D2" t="n">
         <v>225786.4867126779</v>
@@ -26323,7 +26323,7 @@
         <v>221965.3149147517</v>
       </c>
       <c r="F2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="G2" t="n">
         <v>221965.3149147517</v>
@@ -26335,16 +26335,16 @@
         <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
-        <v>221965.3149147515</v>
+        <v>221965.3149147516</v>
       </c>
       <c r="K2" t="n">
-        <v>221965.3149147515</v>
+        <v>221965.3149147516</v>
       </c>
       <c r="L2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
         <v>225786.486712678</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>129371.7651193842</v>
+        <v>129371.7651193831</v>
       </c>
       <c r="D3" t="n">
-        <v>348496.6501120909</v>
+        <v>348496.6501120917</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854458</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>30079.37213409404</v>
+        <v>30079.37213409378</v>
       </c>
       <c r="L3" t="n">
-        <v>85085.71107750348</v>
+        <v>85085.71107750369</v>
       </c>
       <c r="M3" t="n">
-        <v>152035.0117225584</v>
+        <v>152035.0117225585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203192.3421384701</v>
+        <v>203192.34213847</v>
       </c>
       <c r="C4" t="n">
-        <v>242808.555548282</v>
+        <v>242808.5555482822</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979383</v>
+        <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="L4" t="n">
-        <v>13606.80811184273</v>
-      </c>
       <c r="M4" t="n">
-        <v>21597.66737493623</v>
+        <v>21597.66737493621</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493619</v>
+        <v>21597.66737493625</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493625</v>
       </c>
       <c r="P4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493625</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>66284.92590804904</v>
+        <v>66284.92590804899</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-661536.5182892487</v>
+        <v>-661861.8633795308</v>
       </c>
       <c r="C6" t="n">
-        <v>-212678.7598630374</v>
+        <v>-212678.7598630363</v>
       </c>
       <c r="D6" t="n">
-        <v>-360803.1665371959</v>
+        <v>-360803.1665371967</v>
       </c>
       <c r="E6" t="n">
-        <v>-400249.4646455442</v>
+        <v>-400284.2025709797</v>
       </c>
       <c r="F6" t="n">
-        <v>107235.9769790021</v>
+        <v>107201.2390535662</v>
       </c>
       <c r="G6" t="n">
-        <v>107235.9769790018</v>
+        <v>107201.2390535661</v>
       </c>
       <c r="H6" t="n">
-        <v>107235.9769790016</v>
+        <v>107201.2390535662</v>
       </c>
       <c r="I6" t="n">
-        <v>107235.976979002</v>
+        <v>107201.2390535662</v>
       </c>
       <c r="J6" t="n">
-        <v>58171.03225045708</v>
+        <v>58136.29432502142</v>
       </c>
       <c r="K6" t="n">
-        <v>77156.60484490763</v>
+        <v>77121.86691947229</v>
       </c>
       <c r="L6" t="n">
-        <v>22150.26590149845</v>
+        <v>22115.52797606241</v>
       </c>
       <c r="M6" t="n">
-        <v>-51010.30823873205</v>
+        <v>-51010.308238732</v>
       </c>
       <c r="N6" t="n">
-        <v>101024.7034838265</v>
+        <v>101024.7034838264</v>
       </c>
       <c r="O6" t="n">
         <v>101024.7034838264</v>
       </c>
       <c r="P6" t="n">
-        <v>101024.7034838264</v>
+        <v>101024.7034838263</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>649.0775856215715</v>
+        <v>649.077585621571</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>304.3985944325458</v>
+        <v>304.398594432545</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>100.6076447086671</v>
+        <v>100.6076447086662</v>
       </c>
       <c r="D3" t="n">
-        <v>284.9873064959676</v>
+        <v>284.9873064959681</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>116.873007266226</v>
+        <v>116.8730072662249</v>
       </c>
       <c r="D4" t="n">
-        <v>336.1862376674931</v>
+        <v>336.1862376674939</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996095</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>116.873007266226</v>
+        <v>116.8730072662249</v>
       </c>
       <c r="L4" t="n">
-        <v>336.1862376674931</v>
+        <v>336.1862376674939</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>116.873007266226</v>
+        <v>116.8730072662249</v>
       </c>
       <c r="L4" t="n">
-        <v>336.1862376674931</v>
+        <v>336.1862376674939</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>289.6705418711235</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>241.6630589699454</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>19.66550744989557</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098455</v>
+        <v>65.46190265581109</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>85.66344522108005</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917617</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271734</v>
+        <v>176.1789180338727</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577472</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>78.33524723093558</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>151.4551441525338</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>312.7517234273373</v>
+        <v>312.7517234273374</v>
       </c>
       <c r="I5" t="n">
-        <v>109.8786488882928</v>
+        <v>109.8786488882929</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>149.5593440290531</v>
+        <v>149.5593440290532</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.6733887357558</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1369043375863</v>
       </c>
       <c r="V5" t="n">
-        <v>23.35366403758911</v>
+        <v>23.35366403758991</v>
       </c>
       <c r="W5" t="n">
-        <v>259.1078115107426</v>
+        <v>44.84237428486801</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>81.83934422350779</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,10 +27707,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>84.15378116052119</v>
       </c>
       <c r="H6" t="n">
-        <v>98.7517759012257</v>
+        <v>98.75177590122571</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>13.475359604917</v>
+        <v>13.47535960491707</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>145.7506845462213</v>
       </c>
       <c r="T6" t="n">
-        <v>11.18367933480826</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8495314792359</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>177.85001651245</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>151.820649905179</v>
       </c>
       <c r="I7" t="n">
-        <v>72.546650237262</v>
+        <v>120.2513166774852</v>
       </c>
       <c r="J7" t="n">
-        <v>10.60710825800129</v>
+        <v>10.60710825800136</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.2551856595445</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>22.40534419848672</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>4.473636724421794</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>28.28221755147246</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>259.920551918469</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.609357128126919</v>
+        <v>2.609357128126916</v>
       </c>
       <c r="H5" t="n">
-        <v>26.72307868842981</v>
+        <v>26.72307868842979</v>
       </c>
       <c r="I5" t="n">
-        <v>100.5972406821131</v>
+        <v>100.597240682113</v>
       </c>
       <c r="J5" t="n">
-        <v>221.4659245533623</v>
+        <v>221.4659245533621</v>
       </c>
       <c r="K5" t="n">
-        <v>331.9200117869748</v>
+        <v>331.9200117869745</v>
       </c>
       <c r="L5" t="n">
-        <v>411.7761249968891</v>
+        <v>411.7761249968887</v>
       </c>
       <c r="M5" t="n">
-        <v>458.1802798242161</v>
+        <v>458.1802798242157</v>
       </c>
       <c r="N5" t="n">
-        <v>465.5941157645068</v>
+        <v>465.5941157645064</v>
       </c>
       <c r="O5" t="n">
-        <v>439.6473208216947</v>
+        <v>439.6473208216943</v>
       </c>
       <c r="P5" t="n">
-        <v>375.2288167210614</v>
+        <v>375.228816721061</v>
       </c>
       <c r="Q5" t="n">
-        <v>281.781214570016</v>
+        <v>281.7812145700157</v>
       </c>
       <c r="R5" t="n">
-        <v>163.9100296997027</v>
+        <v>163.9100296997026</v>
       </c>
       <c r="S5" t="n">
-        <v>59.46072555719222</v>
+        <v>59.46072555719217</v>
       </c>
       <c r="T5" t="n">
-        <v>11.42246082837559</v>
+        <v>11.42246082837558</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2087485702501534</v>
+        <v>0.2087485702501533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.396129146431305</v>
+        <v>1.396129146431304</v>
       </c>
       <c r="H6" t="n">
-        <v>13.48366833527076</v>
+        <v>13.48366833527075</v>
       </c>
       <c r="I6" t="n">
-        <v>48.06848157669186</v>
+        <v>48.06848157669182</v>
       </c>
       <c r="J6" t="n">
-        <v>131.903587470512</v>
+        <v>131.9035874705119</v>
       </c>
       <c r="K6" t="n">
-        <v>225.4442402814094</v>
+        <v>225.4442402814092</v>
       </c>
       <c r="L6" t="n">
-        <v>303.1376026056217</v>
+        <v>303.1376026056215</v>
       </c>
       <c r="M6" t="n">
-        <v>353.7472841637564</v>
+        <v>353.7472841637561</v>
       </c>
       <c r="N6" t="n">
-        <v>363.1099221676752</v>
+        <v>363.1099221676749</v>
       </c>
       <c r="O6" t="n">
-        <v>332.1746395020131</v>
+        <v>332.1746395020128</v>
       </c>
       <c r="P6" t="n">
-        <v>266.5994332338867</v>
+        <v>266.5994332338864</v>
       </c>
       <c r="Q6" t="n">
-        <v>178.2146608672662</v>
+        <v>178.2146608672661</v>
       </c>
       <c r="R6" t="n">
-        <v>86.68247454772613</v>
+        <v>86.68247454772606</v>
       </c>
       <c r="S6" t="n">
-        <v>25.93248655761655</v>
+        <v>25.93248655761652</v>
       </c>
       <c r="T6" t="n">
-        <v>5.627380199870038</v>
+        <v>5.627380199870033</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09185060173890167</v>
+        <v>0.0918506017389016</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.170467777350375</v>
+        <v>1.170467777350374</v>
       </c>
       <c r="H7" t="n">
-        <v>10.40652260226061</v>
+        <v>10.4065226022606</v>
       </c>
       <c r="I7" t="n">
-        <v>35.1991582497731</v>
+        <v>35.19915824977307</v>
       </c>
       <c r="J7" t="n">
-        <v>82.75207185867148</v>
+        <v>82.75207185867141</v>
       </c>
       <c r="K7" t="n">
-        <v>135.9870744957981</v>
+        <v>135.9870744957979</v>
       </c>
       <c r="L7" t="n">
-        <v>174.0166366435276</v>
+        <v>174.0166366435274</v>
       </c>
       <c r="M7" t="n">
-        <v>183.4761444077501</v>
+        <v>183.4761444077499</v>
       </c>
       <c r="N7" t="n">
-        <v>179.1134917830807</v>
+        <v>179.1134917830805</v>
       </c>
       <c r="O7" t="n">
-        <v>165.4403000203967</v>
+        <v>165.4403000203965</v>
       </c>
       <c r="P7" t="n">
-        <v>141.5627573624489</v>
+        <v>141.5627573624488</v>
       </c>
       <c r="Q7" t="n">
-        <v>98.0107154288573</v>
+        <v>98.01071542885721</v>
       </c>
       <c r="R7" t="n">
-        <v>52.62848751613593</v>
+        <v>52.62848751613588</v>
       </c>
       <c r="S7" t="n">
-        <v>20.3980611743697</v>
+        <v>20.39806117436969</v>
       </c>
       <c r="T7" t="n">
-        <v>5.001089594133418</v>
+        <v>5.001089594133414</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06384369694638416</v>
+        <v>0.0638436969463841</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>301.6445156724557</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>351.1157147121651</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>400.8433522134843</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,28 +32315,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>628.2482078836097</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>137.7376326175082</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>531.2627466777524</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,7 +33509,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33518,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>140.7358547888808</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33974,7 +33974,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>531.2627466777524</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,19 +34208,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>451.7125911569009</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34232,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>345.1232217852619</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.45844197068205</v>
+        <v>92.63945645062405</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663198</v>
+        <v>168.9203199809857</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>40.42002002667599</v>
+        <v>40.42002002667579</v>
       </c>
       <c r="K5" t="n">
-        <v>111.8301607419942</v>
+        <v>111.830160741994</v>
       </c>
       <c r="L5" t="n">
-        <v>176.0097100269019</v>
+        <v>176.0097100269015</v>
       </c>
       <c r="M5" t="n">
-        <v>227.8340465969434</v>
+        <v>227.834046596943</v>
       </c>
       <c r="N5" t="n">
-        <v>236.1810521679159</v>
+        <v>236.1810521679155</v>
       </c>
       <c r="O5" t="n">
-        <v>209.549109400008</v>
+        <v>209.5491094000076</v>
       </c>
       <c r="P5" t="n">
-        <v>143.9958209657918</v>
+        <v>143.9958209657915</v>
       </c>
       <c r="Q5" t="n">
-        <v>59.47552469556652</v>
+        <v>59.47552469556624</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5.065960803845343</v>
+        <v>131.1569961442541</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8284930077546</v>
+        <v>105.7374576673445</v>
       </c>
       <c r="L6" t="n">
-        <v>164.5832228257476</v>
+        <v>164.5832228257473</v>
       </c>
       <c r="M6" t="n">
-        <v>211.6132502417381</v>
+        <v>211.6132502417378</v>
       </c>
       <c r="N6" t="n">
-        <v>231.7682100843419</v>
+        <v>231.7682100843416</v>
       </c>
       <c r="O6" t="n">
-        <v>189.5783950575687</v>
+        <v>189.5783950575684</v>
       </c>
       <c r="P6" t="n">
-        <v>132.6250258195564</v>
+        <v>132.6250258195562</v>
       </c>
       <c r="Q6" t="n">
-        <v>38.2328867812447</v>
+        <v>38.23288678124456</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>113.7175826699152</v>
+        <v>113.7175826699151</v>
       </c>
       <c r="L7" t="n">
-        <v>201.6066619038437</v>
+        <v>201.6066619038436</v>
       </c>
       <c r="M7" t="n">
-        <v>223.0600213695907</v>
+        <v>223.0600213695905</v>
       </c>
       <c r="N7" t="n">
-        <v>223.2456641623093</v>
+        <v>223.2456641623091</v>
       </c>
       <c r="O7" t="n">
-        <v>190.0254279344364</v>
+        <v>190.0254279344362</v>
       </c>
       <c r="P7" t="n">
-        <v>138.8413166273424</v>
+        <v>138.8413166273423</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.84867217716291</v>
+        <v>11.84867217716283</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
+        <v>297.6803606378501</v>
+      </c>
+      <c r="M9" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="M9" t="n">
-        <v>366.9313322820404</v>
-      </c>
       <c r="N9" t="n">
-        <v>577.7882979947786</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35273,7 +35273,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.45443753893058</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>159.0482712280113</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35726,7 +35726,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>266.868944799154</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295222</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35963,28 +35963,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.402257299897</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>485.6519634391653</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>6.39592053417488</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,7 +37157,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37166,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,19 +37856,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>313.1582113770268</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>211.1488143709317</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
